--- a/common/required/kriteria9/apt/template/kuantitatif_vokasi.xlsx
+++ b/common/required/kriteria9/apt/template/kuantitatif_vokasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adryanev\Code\php\kriteria\common\required\kriteria9\apt\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B04193-779A-4AA3-8DE1-8128226F6D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8402DD-B54B-48E4-A9DF-5EA53DE53E17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4515" windowWidth="20730" windowHeight="11310" tabRatio="839" firstSheet="18" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1395" windowWidth="21600" windowHeight="11505" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="14" r:id="rId1"/>
@@ -4673,6 +4673,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4681,15 +4690,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4709,9 +4709,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4722,6 +4719,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4790,127 +4790,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="0"/>
@@ -4959,106 +4839,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -5431,8 +5211,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:X7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5475,62 +5255,62 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -5560,33 +5340,33 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -5627,23 +5407,23 @@
       <c r="G7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
       <c r="Y7" s="11"/>
     </row>
     <row r="8" spans="1:25" s="9" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5685,13 +5465,13 @@
       <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -5884,15 +5664,15 @@
       <c r="G16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
@@ -6056,23 +5836,23 @@
       <c r="G22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
       <c r="Y22" s="11"/>
     </row>
     <row r="23" spans="1:25" s="9" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6110,23 +5890,23 @@
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
       <c r="Y24" s="11"/>
     </row>
     <row r="25" spans="1:25" s="9" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,13 +5948,13 @@
       <c r="G26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -6226,16 +6006,16 @@
       <c r="G28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -6284,15 +6064,15 @@
       <c r="G30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
@@ -6342,15 +6122,15 @@
       <c r="G32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
@@ -6400,11 +6180,11 @@
       <c r="G34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -6516,15 +6296,15 @@
       <c r="G38" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
@@ -6704,12 +6484,12 @@
       <c r="R44" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="106"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
       <c r="Y44" s="11"/>
     </row>
     <row r="45" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6764,12 +6544,12 @@
       <c r="R46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S46" s="107">
+      <c r="S46" s="103">
         <f ca="1">TODAY()</f>
-        <v>44198</v>
-      </c>
-      <c r="T46" s="107"/>
-      <c r="U46" s="107"/>
+        <v>44272</v>
+      </c>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
@@ -6842,6 +6622,11 @@
     <protectedRange sqref="H40" name="Nama Program Studi_2"/>
   </protectedRanges>
   <mergeCells count="16">
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="H7:X7"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H16:P16"/>
     <mergeCell ref="S46:U46"/>
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="S44:X44"/>
@@ -6853,11 +6638,6 @@
     <mergeCell ref="H30:P30"/>
     <mergeCell ref="H32:P32"/>
     <mergeCell ref="H34:L34"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="H7:X7"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H16:P16"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26 H24 H32 H28 H38 H30 H36 H34 H40" xr:uid="{F460C3BE-8D30-4E72-839E-D85F3E7E8854}"/>
@@ -6987,10 +6767,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="115"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="36">
         <f>SUM(C6:C7)</f>
         <v>0</v>
@@ -7062,7 +6842,7 @@
       <c r="A3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="117" t="s">
         <v>324</v>
       </c>
       <c r="C3" s="120" t="s">
@@ -7076,7 +6856,7 @@
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="120"/>
-      <c r="B4" s="119"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="30" t="s">
         <v>69</v>
       </c>
@@ -7135,10 +6915,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="115"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="36">
         <f>SUM(C6:C7)</f>
         <v>0</v>
@@ -7319,10 +7099,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="36">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -7441,10 +7221,10 @@
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="34">
         <f>SUM(C5:C6)</f>
         <v>0</v>
@@ -7616,10 +7396,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="36">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -7744,10 +7524,10 @@
       <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="36">
         <f>SUM(C5:C6)</f>
         <v>0</v>
@@ -7900,10 +7680,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="36">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -8064,10 +7844,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="36">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -8352,10 +8132,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="125"/>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="99">
         <f>SUM(D6:D8)</f>
         <v>0</v>
@@ -8449,10 +8229,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="99">
         <f>SUM(D10:D14)</f>
         <v>0</v>
@@ -8532,10 +8312,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="125"/>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="115"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="99">
         <f>SUM(D16:D19)</f>
         <v>0</v>
@@ -8601,10 +8381,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="125"/>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="115"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="99">
         <f>SUM(D21:D23)</f>
         <v>0</v>
@@ -8623,11 +8403,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="99">
         <f>D9+D15+D20+D24</f>
         <v>0</v>
@@ -8679,10 +8459,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="125"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="119"/>
       <c r="D28" s="99">
         <f>SUM(D26:D27)</f>
         <v>0</v>
@@ -8701,11 +8481,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="99">
         <f>D25+D28</f>
         <v>0</v>
@@ -8725,6 +8505,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:C20"/>
@@ -8736,17 +8527,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{587BA8A5-909C-45C3-A17E-505A56449107}"/>
@@ -9273,7 +9053,7 @@
       </c>
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="117" t="s">
         <v>367</v>
       </c>
     </row>
@@ -9289,7 +9069,7 @@
       <c r="E4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="119"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
@@ -9417,10 +9197,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="115"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="99">
         <f>SUM(C6:C12)</f>
         <v>0</v>
@@ -9469,10 +9249,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="99">
         <f>SUM(C14:C15)</f>
         <v>0</v>
@@ -9775,13 +9555,13 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:I8 G10:I13">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -9825,7 +9605,7 @@
       <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="120" t="s">
@@ -9843,7 +9623,7 @@
       <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="120"/>
       <c r="C4" s="30" t="s">
         <v>58</v>
@@ -9922,27 +9702,27 @@
         <v>61</v>
       </c>
       <c r="C8" s="36">
-        <f>SUM(C6:C7)</f>
+        <f t="shared" ref="C8:H8" si="0">SUM(C6:C7)</f>
         <v>0</v>
       </c>
       <c r="D8" s="36">
-        <f>SUM(D6:D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="36">
-        <f>SUM(E6:E7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="36">
-        <f>SUM(F6:F7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="36">
-        <f>SUM(G6:G7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="36">
-        <f>SUM(H6:H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10101,8 +9881,8 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="36">
         <f>COUNTIFS(B10:B11,"*",D10:D11,"V")</f>
         <v>0</v>
@@ -10142,10 +9922,10 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:F10">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:F11" xr:uid="{FE3760BC-9DF2-45DE-A0AB-D681677AE7EF}">
@@ -10342,10 +10122,10 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:F10">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:F11" xr:uid="{1B7F98CA-89CA-46C7-8D9A-A8C40CB29233}">
@@ -10988,11 +10768,11 @@
       <c r="A37" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="115" t="s">
         <v>163</v>
       </c>
       <c r="C37" s="131"/>
-      <c r="D37" s="117"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="120" t="s">
         <v>166</v>
       </c>
@@ -11249,7 +11029,7 @@
       <c r="D59" s="120"/>
       <c r="E59" s="120"/>
       <c r="F59" s="120"/>
-      <c r="G59" s="118" t="s">
+      <c r="G59" s="117" t="s">
         <v>182</v>
       </c>
     </row>
@@ -11270,7 +11050,7 @@
       <c r="F60" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G60" s="119"/>
+      <c r="G60" s="118"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32">
@@ -11502,6 +11282,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:E71"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:D79"/>
@@ -11511,21 +11306,6 @@
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{7288823C-3B72-4E90-B9F2-782FCDD0887C}"/>
@@ -13231,7 +13011,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="119" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="132"/>
@@ -13737,7 +13517,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -14706,10 +14486,10 @@
     <mergeCell ref="F11:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:E15" xr:uid="{642C74EB-A876-4122-8C15-4037B175BB3C}">
@@ -14754,28 +14534,28 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="116" t="s">
+      <c r="D3" s="116"/>
+      <c r="E3" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="116" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="117"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="30" t="s">
         <v>66</v>
       </c>
@@ -15614,23 +15394,23 @@
       <c r="H61" s="114"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115">
+      <c r="B62" s="119"/>
+      <c r="C62" s="119">
         <f>C12+C19+C61+C40+C47+C54+C26</f>
         <v>0</v>
       </c>
-      <c r="D62" s="115">
+      <c r="D62" s="119">
         <f t="shared" ref="D62:F62" si="8">D12+D19+D61+D40+D47+D54+D26</f>
         <v>0</v>
       </c>
-      <c r="E62" s="115">
+      <c r="E62" s="119">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F62" s="115">
+      <c r="F62" s="119">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -15644,12 +15424,12 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="115"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="112">
         <f>G62+H62</f>
         <v>0</v>
@@ -15658,6 +15438,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="G3:H3"/>
@@ -15674,25 +15473,6 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{0750DFA3-BC11-47B1-A63B-97AF1A6C9E4C}"/>
@@ -15786,10 +15566,10 @@
       <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="36">
         <f>SUM(C5:C6)</f>
         <v>0</v>
